--- a/tests/doesntmatter.xlsx
+++ b/tests/doesntmatter.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -71,28 +71,46 @@
     <t>Closest Km Values</t>
   </si>
   <si>
-    <t>[c]: fructosylLYS + ATP ==&gt; fructosyl6PLYS + ADP + H</t>
+    <t>[c]: H2O + m7GMP ==&gt; m7G + PI</t>
+  </si>
+  <si>
+    <t>13453</t>
   </si>
   <si>
     <t>No Data</t>
   </si>
   <si>
+    <t>{'numParticipants': [2, 2], 'proximity': 8.0, 'kmSubstrate': u"7-Methylguanosine 5'-phosphate", 'km': u'7.8E-6', 'reactionID': u'13453', 'entryID': u'49732', 'vmax': u'6.83333333E-6', 'reactionStoichiometry': u"H2O + 7-Methylguanosine 5'-phosphate = Phosphate + 7-Methylguanosine", 'species': u'Homo sapiens', 'ECNumber': u'3.1.3.91'}</t>
+  </si>
+  <si>
+    <t>{'numParticipants': [2, 2], 'proximity': 8.0, 'kmSubstrate': u"7-Methylguanosine 5'-phosphate", 'km': u'1.3E-5', 'reactionID': u'13453', 'entryID': u'49737', 'vmax': u'1.83333333E-4', 'reactionStoichiometry': u"H2O + 7-Methylguanosine 5'-phosphate = Phosphate + 7-Methylguanosine", 'species': u'Drosophila melanogaster', 'ECNumber': u'3.1.3.91'}</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
     <t>Lift Not Used</t>
   </si>
   <si>
+    <t>49732, 49737</t>
+  </si>
+  <si>
+    <t>1.83333333E-4, 6.83333333E-6</t>
+  </si>
+  <si>
+    <t>1.3E-5, 7.8E-6</t>
+  </si>
+  <si>
     <t>A Reaction Name #2 (GMP + ATP &lt;==&gt; ADP + GDP)</t>
   </si>
   <si>
     <t>77</t>
   </si>
   <si>
-    <t>{'numParticipants': [2, 2], 'proximity': 8.0, 'km': u'2.0E-4', 'reactionID': u'77', 'entryID': u'30207', 'vmax': u'1.75E-6', 'reactionStoichiometry': u'ATP + GMP = GDP + ADP', 'species': u'Rattus norvegicus', 'ECNumber': u'2.7.4.8'}</t>
-  </si>
-  <si>
-    <t>{'numParticipants': [2, 2], 'proximity': 8.0, 'km': u'1.12E-5', 'reactionID': u'77', 'entryID': u'30208', 'vmax': u'1.75E-6', 'reactionStoichiometry': u'ATP + GMP = GDP + ADP', 'species': u'Rattus norvegicus', 'ECNumber': u'2.7.4.8'}</t>
-  </si>
-  <si>
-    <t>8.0</t>
+    <t>{'numParticipants': [2, 2], 'proximity': 8.0, 'kmSubstrate': u'ATP', 'km': u'2.0E-4', 'reactionID': u'77', 'entryID': u'30207', 'vmax': u'1.75E-6', 'reactionStoichiometry': u'ATP + GMP = GDP + ADP', 'species': u'Rattus norvegicus', 'ECNumber': u'2.7.4.8'}</t>
+  </si>
+  <si>
+    <t>{'numParticipants': [2, 2], 'proximity': 8.0, 'kmSubstrate': u'GMP', 'km': u'1.12E-5', 'reactionID': u'77', 'entryID': u'30208', 'vmax': u'1.75E-6', 'reactionStoichiometry': u'ATP + GMP = GDP + ADP', 'species': u'Rattus norvegicus', 'ECNumber': u'2.7.4.8'}</t>
   </si>
   <si>
     <t>30207, 30208</t>
@@ -104,58 +122,82 @@
     <t>1.12E-5, 2.0E-4</t>
   </si>
   <si>
-    <t>[c]: ATP + DG &lt;==&gt; (2) H + DGMP + ADP</t>
-  </si>
-  <si>
-    <t>324</t>
-  </si>
-  <si>
-    <t>6.33333333E-5</t>
-  </si>
-  <si>
-    <t>{'numParticipants': [2, 2], 'proximity': 6.0, 'km': u'6.5E-6', 'reactionID': u'324', 'entryID': u'49318', 'vmax': u'6.33333333E-5', 'reactionStoichiometry': u'ATP + Deoxyguanosine = dGMP + ADP', 'species': u'Bacillus subtilis', 'ECNumber': u'2.7.1.113'}</t>
+    <t>[c]: FMN + H + NADH ==&gt; FMNH2 + NAD</t>
+  </si>
+  <si>
+    <t>5301</t>
+  </si>
+  <si>
+    <t>0.00116666667</t>
+  </si>
+  <si>
+    <t>{'numParticipants': [2, 2], 'proximity': 7.0, 'kmSubstrate': u'NADH', 'km': u'4.0E-5', 'reactionID': u'5301', 'entryID': u'39420', 'vmax': u'0.00116666667', 'reactionStoichiometry': u'NAD+ + Reduced FMN = NADH + H+ + Riboflavin-5-phosphate', 'species': u'Escherichia coli', 'ECNumber': u'1.5.1'}</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>39420</t>
+  </si>
+  <si>
+    <t>{'numParticipants': [2, 2], 'proximity': 6.0, 'kmSubstrate': u'Riboflavin-5-phosphate', 'km': u'3.96E-5', 'reactionID': u'5301', 'entryID': u'39162', 'vmax': '', 'reactionStoichiometry': u'NAD+ + Reduced FMN = NADH + H+ + Riboflavin-5-phosphate', 'species': u'Thermus thermophilus', 'ECNumber': u'1.5.1'}</t>
+  </si>
+  <si>
+    <t>{'numParticipants': [2, 2], 'proximity': 6.0, 'kmSubstrate': u'NADH', 'km': u'6.5E-4', 'reactionID': u'5301', 'entryID': u'42729', 'vmax': '', 'reactionStoichiometry': u'NAD+ + Reduced FMN = NADH + H+ + Riboflavin-5-phosphate', 'species': u'Bacillus subtilis', 'ECNumber': u'1.5.1.30'}</t>
   </si>
   <si>
     <t>6.0</t>
   </si>
   <si>
-    <t>49318</t>
-  </si>
-  <si>
-    <t>6.7E-5</t>
-  </si>
-  <si>
-    <t>{'numParticipants': [2, 2], 'proximity': 6.0, 'km': u'6.7E-5', 'reactionID': u'324', 'entryID': u'42080', 'vmax': u'', 'reactionStoichiometry': u'ATP + Deoxyguanosine = dGMP + ADP', 'species': u'Lactobacillus acidophilus', 'ECNumber': u'2.7.1.113'}</t>
-  </si>
-  <si>
-    <t>{'numParticipants': [2, 2], 'proximity': 6.0, 'km': u'0.0069', 'reactionID': u'324', 'entryID': u'48392', 'vmax': '', 'reactionStoichiometry': u'ATP + Deoxyguanosine = dGMP + ADP', 'species': u'Lactobacillus acidophilus', 'ECNumber': u'2.7.1.113'}</t>
-  </si>
-  <si>
-    <t>42061, 42062, 42076, 42080, 48392, 49318</t>
-  </si>
-  <si>
-    <t>0.0017, 0.0069, 6.5E-6, 6.7E-5</t>
-  </si>
-  <si>
-    <t>[c]: AHCYS + H2O ==&gt; HCYS + ADN</t>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t>{'numParticipants': [2, 2], 'proximity': 8.0, 'km': u'1.4E-6', 'reactionID': u'738', 'entryID': u'11564', 'vmax': u'6.33346E-9', 'reactionStoichiometry': u'S-Adenosyl-L-homocysteine + H2O = Adenosine + L-Homocysteine', 'species': u'Mesocricetus auratus', 'ECNumber': u'3.3.1.1'}</t>
-  </si>
-  <si>
-    <t>{'numParticipants': [2, 2], 'proximity': 8.0, 'km': u'4.1E-5', 'reactionID': u'738', 'entryID': u'56729', 'vmax': u'6.2222222222222215E-6', 'reactionStoichiometry': u'S-Adenosyl-L-homocysteine + H2O = Adenosine + L-Homocysteine', 'species': u'Beta vulgaris', 'ECNumber': u'3.3.1.1'}</t>
-  </si>
-  <si>
-    <t>11564, 56729</t>
-  </si>
-  <si>
-    <t>6.2222222222222215E-6, 6.33346E-9</t>
-  </si>
-  <si>
-    <t>1.4E-6, 4.1E-5</t>
+    <t>39162, 42729</t>
+  </si>
+  <si>
+    <t>3.96E-5, 6.5E-4</t>
+  </si>
+  <si>
+    <t>[c]: dCMP64dTMP + (2) H2O ==&gt; dC64dT + (2) PI</t>
+  </si>
+  <si>
+    <t>4.33333333E-5</t>
+  </si>
+  <si>
+    <t>{'numParticipants': [2, 2], 'proximity': 6.0, 'kmSubstrate': u'HPr S46D', 'km': u'9.0E-6', 'reactionID': u'581', 'entryID': u'22920', 'vmax': u'4.33333333E-5', 'reactionStoichiometry': u'D-Mannitol 1-phosphate + H2O = Phosphate + D-Mannitol', 'species': u'Streptococcus bovis', 'ECNumber': u'3.1.3.22'}</t>
+  </si>
+  <si>
+    <t>{'numParticipants': [2, 2], 'proximity': 6.0, 'kmSubstrate': u'Glucose 6-phosphate', 'km': u'0.07', 'reactionID': u'7713', 'entryID': u'22921', 'vmax': u'9.5E-6', 'reactionStoichiometry': u'H2O + Glucose 6-phosphate = Glucose + Phosphate', 'species': u'Streptococcus bovis', 'ECNumber': u'3.1.3.9'}</t>
+  </si>
+  <si>
+    <t>{'numParticipants': [2, 2], 'proximity': 6.0, 'kmSubstrate': u'2-Deoxy-D-glucose 6-phosphate', 'km': u'0.011', 'reactionID': u'2493', 'entryID': u'16039', 'vmax': u'3.5E-4', 'reactionStoichiometry': u'2-Deoxy-D-glucose 6-phosphate + H2O = 2-Deoxy-D-glucose + Phosphate', 'species': u'Lactococcus lactis subsp. lactis', 'ECNumber': u'3.1.3.2'}</t>
+  </si>
+  <si>
+    <t>Lifted From 3.1.3</t>
+  </si>
+  <si>
+    <t>16039, 16871, 16872, 22920, 22921, 22922, 42747</t>
+  </si>
+  <si>
+    <t>2.91666667E-5, 3.33333333E-5, 3.5E-4, 4.33333333E-5, 6.33333333E-5, 9.0E-5, 9.5E-6</t>
+  </si>
+  <si>
+    <t>2.6E-6</t>
+  </si>
+  <si>
+    <t>{'numParticipants': [2, 2], 'proximity': 1.0, 'kmSubstrate': u"5'-AMP", 'km': u'2.6E-6', 'reactionID': u'295', 'entryID': u'30219', 'vmax': u'', 'reactionStoichiometry': u'H2O + AMP = Phosphate + Adenosine', 'species': u'Mycoplasma fermentans', 'ECNumber': u'3.1.3.5'}</t>
+  </si>
+  <si>
+    <t>{'numParticipants': [2, 2], 'proximity': 1.0, 'kmSubstrate': u"5'-AMP", 'km': u'6.3E-7', 'reactionID': u'295', 'entryID': u'30226', 'vmax': u'', 'reactionStoichiometry': u'H2O + AMP = Phosphate + Adenosine', 'species': u'Mycoplasma pulmonis', 'ECNumber': u'3.1.3.5'}</t>
+  </si>
+  <si>
+    <t>{'numParticipants': [2, 2], 'proximity': 1.0, 'kmSubstrate': u"5'-AMP", 'km': u'1.04E-5', 'reactionID': u'295', 'entryID': u'30224', 'vmax': u'', 'reactionStoichiometry': u'H2O + AMP = Phosphate + Adenosine', 'species': u'Mycoplasma fermentans', 'ECNumber': u'3.1.3.5'}</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>30218, 30219, 30220, 30221, 30222, 30223, 30224, 30225, 30226, 30227</t>
+  </si>
+  <si>
+    <t>1.04E-5, 1.0E-6, 1.8E-6, 2.2E-6, 2.6E-6, 4.1E-6, 4.2E-6, 6.3E-7</t>
   </si>
   <si>
     <t>A Reacion Name #1 (ATP + UMP &lt;==&gt; UDP + ADP)</t>
@@ -167,13 +209,13 @@
     <t>0.00456666667</t>
   </si>
   <si>
-    <t>{'numParticipants': [2, 2], 'proximity': 6.0, 'km': '', 'reactionID': u'201', 'entryID': u'17907', 'vmax': u'0.00456666667', 'reactionStoichiometry': u'ATP + UMP = UDP + ADP', 'species': u'Streptococcus pneumoniae', 'ECNumber': u'2.7.4.22'}</t>
-  </si>
-  <si>
-    <t>{'numParticipants': [2, 2], 'proximity': 6.0, 'km': u'2.22E-5', 'reactionID': u'201', 'entryID': u'40434', 'vmax': u'5.33333333E-5', 'reactionStoichiometry': u'ATP + UMP = UDP + ADP', 'species': u'Streptococcus pneumoniae', 'ECNumber': u'2.7.4.22'}</t>
-  </si>
-  <si>
-    <t>{'numParticipants': [2, 2], 'proximity': 6.0, 'km': '', 'reactionID': u'201', 'entryID': u'17934', 'vmax': u'0.0111', 'reactionStoichiometry': u'ATP + UMP = UDP + ADP', 'species': u'Streptococcus pneumoniae', 'ECNumber': u'2.7.4.22'}</t>
+    <t>{'numParticipants': [2, 2], 'proximity': 6.0, 'kmSubstrate': '', 'km': '', 'reactionID': u'201', 'entryID': u'17907', 'vmax': u'0.00456666667', 'reactionStoichiometry': u'ATP + UMP = UDP + ADP', 'species': u'Streptococcus pneumoniae', 'ECNumber': u'2.7.4.22'}</t>
+  </si>
+  <si>
+    <t>{'numParticipants': [2, 2], 'proximity': 6.0, 'kmSubstrate': u'UMP', 'km': u'2.22E-5', 'reactionID': u'201', 'entryID': u'40434', 'vmax': u'5.33333333E-5', 'reactionStoichiometry': u'ATP + UMP = UDP + ADP', 'species': u'Streptococcus pneumoniae', 'ECNumber': u'2.7.4.22'}</t>
+  </si>
+  <si>
+    <t>{'numParticipants': [2, 2], 'proximity': 6.0, 'kmSubstrate': '', 'km': '', 'reactionID': u'201', 'entryID': u'17934', 'vmax': u'0.0111', 'reactionStoichiometry': u'ATP + UMP = UDP + ADP', 'species': u'Streptococcus pneumoniae', 'ECNumber': u'2.7.4.22'}</t>
   </si>
   <si>
     <t>17903, 17904, 17905, 17906, 17907, 17908, 17909, 17910, 17911, 17912, 17913, 17914, 17915, 17916, 17917, 17918, 17919, 17920, 17921, 17922, 17923, 17924, 17925, 17926, 17927, 17928, 17933, 17934, 17935, 40410, 40411, 40412, 40413, 40414, 40415, 40416, 40417, 40418, 40419, 40420, 40433, 40434, 40435, 40436, 51897</t>
@@ -185,13 +227,13 @@
     <t>1.0E-4</t>
   </si>
   <si>
-    <t>{'numParticipants': [2, 2], 'proximity': 6.0, 'km': u'1.0E-4', 'reactionID': u'201', 'entryID': u'17927', 'vmax': u'0.00665', 'reactionStoichiometry': u'ATP + UMP = UDP + ADP', 'species': u'Streptococcus pneumoniae', 'ECNumber': u'2.7.4.22'}</t>
-  </si>
-  <si>
-    <t>{'numParticipants': [2, 2], 'proximity': 6.0, 'km': u'8.0E-6', 'reactionID': u'201', 'entryID': u'51904', 'vmax': '', 'reactionStoichiometry': u'ATP + UMP = UDP + ADP', 'species': u'Bacillus subtilis', 'ECNumber': u'2.7.4.22'}</t>
-  </si>
-  <si>
-    <t>{'numParticipants': [2, 2], 'proximity': 6.0, 'km': u'9.000000000000001E-4', 'reactionID': u'201', 'entryID': u'51903', 'vmax': '', 'reactionStoichiometry': u'ATP + UMP = UDP + ADP', 'species': u'Bacillus subtilis', 'ECNumber': u'2.7.4.22'}</t>
+    <t>{'numParticipants': [2, 2], 'proximity': 6.0, 'kmSubstrate': u'UMP', 'km': u'1.0E-4', 'reactionID': u'201', 'entryID': u'17927', 'vmax': u'0.00665', 'reactionStoichiometry': u'ATP + UMP = UDP + ADP', 'species': u'Streptococcus pneumoniae', 'ECNumber': u'2.7.4.22'}</t>
+  </si>
+  <si>
+    <t>{'numParticipants': [2, 2], 'proximity': 6.0, 'kmSubstrate': u'UMP', 'km': u'8.0E-6', 'reactionID': u'201', 'entryID': u'51904', 'vmax': '', 'reactionStoichiometry': u'ATP + UMP = UDP + ADP', 'species': u'Bacillus subtilis', 'ECNumber': u'2.7.4.22'}</t>
+  </si>
+  <si>
+    <t>{'numParticipants': [2, 2], 'proximity': 6.0, 'kmSubstrate': u'ATP', 'km': u'9.000000000000001E-4', 'reactionID': u'201', 'entryID': u'51903', 'vmax': '', 'reactionStoichiometry': u'ATP + UMP = UDP + ADP', 'species': u'Bacillus subtilis', 'ECNumber': u'2.7.4.22'}</t>
   </si>
   <si>
     <t>17927, 17928, 40415, 40418, 40419, 40420, 40433, 40434, 40435, 40436, 51897, 51903, 51904</t>
@@ -638,270 +680,278 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s"/>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" t="s">
         <v>24</v>
       </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" t="s">
-        <v>20</v>
-      </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B5" t="s"/>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="P5" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="Q5" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="R5" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="N6" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="O6" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -925,10 +975,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -936,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -944,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -952,7 +1002,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -960,7 +1010,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -968,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -976,7 +1026,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -984,7 +1034,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -992,7 +1042,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1000,7 +1050,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1008,7 +1058,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
